--- a/Petrol_Pump_Thangeda.xlsx
+++ b/Petrol_Pump_Thangeda.xlsx
@@ -417,11 +417,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,13 +1093,13 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5">
-        <f t="shared" ref="D16:D31" si="10">B16*C16</f>
+        <f t="shared" ref="D16:D24" si="10">B16*C16</f>
         <v>0</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5">
-        <f t="shared" ref="G16:G31" si="11">E16*F16</f>
+        <f t="shared" ref="G16:G24" si="11">E16*F16</f>
         <v>0</v>
       </c>
       <c r="H16" s="5"/>
@@ -1107,7 +1107,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5">
-        <f t="shared" ref="L16:L31" si="12">(D16+G16+H16+I16)-J16</f>
+        <f t="shared" ref="L16:L24" si="12">(D16+G16+H16+I16)-J16</f>
         <v>0</v>
       </c>
       <c r="M16" s="5">
@@ -1115,7 +1115,7 @@
         <v>115566.93199999997</v>
       </c>
       <c r="N16" s="5">
-        <f t="shared" ref="N16:N31" si="13">L16+M16</f>
+        <f t="shared" ref="N16:N24" si="13">L16+M16</f>
         <v>115566.93199999997</v>
       </c>
     </row>
@@ -1360,333 +1360,123 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
-        <v>42917</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="5">
+        <f>SUM(B2:B24)</f>
+        <v>2818.84</v>
+      </c>
+      <c r="C25" s="5">
+        <v>73.400000000000006</v>
+      </c>
       <c r="D25" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+        <f>(B25*C25)</f>
+        <v>206902.85600000003</v>
+      </c>
+      <c r="E25" s="5">
+        <f>SUM(E2:E24)</f>
+        <v>15561.39</v>
+      </c>
+      <c r="F25" s="5">
+        <f>F2</f>
+        <v>63.36</v>
+      </c>
       <c r="G25" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
+        <f>E25*F25</f>
+        <v>985969.67039999994</v>
+      </c>
+      <c r="H25" s="5">
+        <f>SUM(H2:H24)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <f>SUM(I2:I24)</f>
+        <v>341836</v>
+      </c>
+      <c r="J25" s="5">
+        <f>SUM(J2:J24)</f>
+        <v>1459068</v>
+      </c>
+      <c r="K25" s="5">
+        <f>SUM(K2:K24)</f>
+        <v>1780</v>
+      </c>
       <c r="L25" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="5"/>
+        <f>SUM(L2:L24)</f>
+        <v>76598.931999999972</v>
+      </c>
+      <c r="M25" s="5">
+        <f>SUM(M2:M24)</f>
+        <v>1555628.2828000002</v>
+      </c>
       <c r="N25" s="5">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>SUM(N2:N24)</f>
+        <v>1632227.2148000002</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
-        <v>42918</v>
-      </c>
-      <c r="B26" s="5"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="5">
+        <v>2.6</v>
+      </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5">
+        <v>1.6</v>
+      </c>
       <c r="F26" s="5"/>
-      <c r="G26" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="L26" s="5"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="5">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="N26" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
-        <v>42919</v>
-      </c>
-      <c r="B27" s="5"/>
+      <c r="A27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="5">
+        <f>B25*B26</f>
+        <v>7328.9840000000004</v>
+      </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5">
+        <f>E25*E26</f>
+        <v>24898.224000000002</v>
+      </c>
       <c r="F27" s="5"/>
-      <c r="G27" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5">
+        <f>H25</f>
+        <v>0</v>
+      </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="K27" s="5">
+        <f>K25</f>
+        <v>1780</v>
+      </c>
+      <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A28" s="4">
-        <v>42920</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A29" s="4">
-        <v>42921</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A30" s="4">
-        <v>42922</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A31" s="4">
-        <v>42923</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="5">
-        <f>SUM(B2:B31)</f>
-        <v>2818.84</v>
-      </c>
-      <c r="C32" s="5">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="D32" s="5">
-        <f>(B32*C32)</f>
-        <v>206902.85600000003</v>
-      </c>
-      <c r="E32" s="5">
-        <f>SUM(E2:E31)</f>
-        <v>15561.39</v>
-      </c>
-      <c r="F32" s="5">
-        <f>F2</f>
-        <v>63.36</v>
-      </c>
-      <c r="G32" s="5">
-        <f>E32*F32</f>
-        <v>985969.67039999994</v>
-      </c>
-      <c r="H32" s="5">
-        <f t="shared" ref="H32:N32" si="14">SUM(H2:H31)</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="5">
-        <f t="shared" si="14"/>
-        <v>341836</v>
-      </c>
-      <c r="J32" s="5">
-        <f t="shared" si="14"/>
-        <v>1459068</v>
-      </c>
-      <c r="K32" s="5">
-        <f>SUM(K2:K31)</f>
-        <v>1780</v>
-      </c>
-      <c r="L32" s="5">
-        <f t="shared" si="14"/>
-        <v>76598.931999999972</v>
-      </c>
-      <c r="M32" s="5">
-        <f t="shared" si="14"/>
-        <v>1555628.2828000002</v>
-      </c>
-      <c r="N32" s="5">
-        <f t="shared" si="14"/>
-        <v>1632227.2148000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5">
-        <v>2.6</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5">
-        <v>1.6</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="5">
-        <f>B32*B33</f>
-        <v>7328.9840000000004</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5">
-        <f>E32*E33</f>
-        <v>24898.224000000002</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5">
-        <f>H32</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5">
-        <f>K32</f>
-        <v>1780</v>
-      </c>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5">
-        <f>(B34+E34+H34)-K34</f>
+        <f>(B27+E27+H27)-K27</f>
         <v>30447.208000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>42917</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>42918</v>
       </c>
     </row>

--- a/Petrol_Pump_Thangeda.xlsx
+++ b/Petrol_Pump_Thangeda.xlsx
@@ -419,9 +419,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,33 +889,52 @@
       <c r="A10" s="4">
         <v>42902</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="B10" s="5">
+        <v>599.77</v>
+      </c>
+      <c r="C10" s="5">
+        <v>71.97</v>
+      </c>
       <c r="D10" s="5">
-        <f t="shared" ref="D10" si="6">B10*C10</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+        <f t="shared" si="5"/>
+        <v>43165.446899999995</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1492.62</v>
+      </c>
+      <c r="F10" s="5">
+        <v>61.68</v>
+      </c>
       <c r="G10" s="5">
-        <f t="shared" ref="G10" si="7">E10*F10</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+        <f t="shared" ref="G10" si="6">E10*F10</f>
+        <v>92064.801599999992</v>
+      </c>
+      <c r="H10" s="5">
+        <f>317+208</f>
+        <v>525</v>
+      </c>
+      <c r="I10" s="5">
+        <f>40+230+270+290000+466000</f>
+        <v>756540</v>
+      </c>
+      <c r="J10" s="5">
+        <v>939581</v>
+      </c>
+      <c r="K10" s="5">
+        <f>150+130</f>
+        <v>280</v>
+      </c>
       <c r="L10" s="5">
-        <f t="shared" ref="L10:L15" si="8">(D10+G10+H10+I10)-J10</f>
-        <v>0</v>
+        <f t="shared" ref="L10:L15" si="7">(D10+G10+H10+I10)-J10</f>
+        <v>-47285.751500000013</v>
       </c>
       <c r="M10" s="5">
         <f t="shared" si="4"/>
         <v>115566.93199999997</v>
       </c>
       <c r="N10" s="5">
-        <f t="shared" ref="N10" si="9">L10+M10</f>
-        <v>115566.93199999997</v>
+        <f t="shared" si="3"/>
+        <v>68281.180499999959</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -925,66 +944,103 @@
       <c r="A11" s="4">
         <v>42903</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="5">
+        <v>427.57</v>
+      </c>
+      <c r="C11" s="5">
+        <v>71.97</v>
+      </c>
       <c r="D11" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+        <v>30772.212899999999</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3398.99</v>
+      </c>
+      <c r="F11" s="5">
+        <v>61.68</v>
+      </c>
       <c r="G11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+        <v>209649.70319999999</v>
+      </c>
+      <c r="H11" s="5">
+        <f>129.66*61.68+575</f>
+        <v>8572.4287999999997</v>
+      </c>
+      <c r="I11" s="5">
+        <f>120+230+120</f>
+        <v>470</v>
+      </c>
+      <c r="J11" s="5">
+        <v>264286</v>
+      </c>
+      <c r="K11" s="5">
+        <f>100+350+250+100</f>
+        <v>800</v>
+      </c>
       <c r="L11" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-14821.655100000033</v>
       </c>
       <c r="M11" s="5">
-        <f t="shared" si="4"/>
-        <v>115566.93199999997</v>
+        <f>N10</f>
+        <v>68281.180499999959</v>
       </c>
       <c r="N11" s="5">
         <f t="shared" si="3"/>
-        <v>115566.93199999997</v>
+        <v>53459.525399999926</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>42904</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="B12" s="5">
+        <v>398.44</v>
+      </c>
+      <c r="C12" s="5">
+        <v>71.97</v>
+      </c>
       <c r="D12" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+        <v>28675.7268</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1903.22</v>
+      </c>
+      <c r="F12" s="5">
+        <v>61.68</v>
+      </c>
       <c r="G12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+        <v>117390.6096</v>
+      </c>
+      <c r="H12" s="5">
+        <f>4229+205</f>
+        <v>4434</v>
+      </c>
+      <c r="I12" s="5">
+        <f>120+336+1170</f>
+        <v>1626</v>
+      </c>
+      <c r="J12" s="5">
+        <v>41989</v>
+      </c>
+      <c r="K12" s="5">
+        <v>130</v>
+      </c>
       <c r="L12" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>110137.3364</v>
       </c>
       <c r="M12" s="5">
         <f t="shared" si="4"/>
-        <v>115566.93199999997</v>
+        <v>53459.525399999926</v>
       </c>
       <c r="N12" s="5">
         <f t="shared" si="3"/>
-        <v>115566.93199999997</v>
+        <v>163596.86179999993</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.35">
@@ -1008,16 +1064,16 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M13" s="5">
         <f t="shared" si="4"/>
-        <v>115566.93199999997</v>
+        <v>163596.86179999993</v>
       </c>
       <c r="N13" s="5">
         <f t="shared" si="3"/>
-        <v>115566.93199999997</v>
+        <v>163596.86179999993</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.35">
@@ -1041,16 +1097,16 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M14" s="5">
         <f t="shared" si="4"/>
-        <v>115566.93199999997</v>
+        <v>163596.86179999993</v>
       </c>
       <c r="N14" s="5">
         <f t="shared" si="3"/>
-        <v>115566.93199999997</v>
+        <v>163596.86179999993</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="21" x14ac:dyDescent="0.35">
@@ -1074,16 +1130,16 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M15" s="5">
         <f t="shared" si="4"/>
-        <v>115566.93199999997</v>
+        <v>163596.86179999993</v>
       </c>
       <c r="N15" s="5">
         <f t="shared" si="3"/>
-        <v>115566.93199999997</v>
+        <v>163596.86179999993</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="21" x14ac:dyDescent="0.35">
@@ -1093,13 +1149,13 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5">
-        <f t="shared" ref="D16:D24" si="10">B16*C16</f>
+        <f t="shared" ref="D16:D24" si="8">B16*C16</f>
         <v>0</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5">
-        <f t="shared" ref="G16:G24" si="11">E16*F16</f>
+        <f t="shared" ref="G16:G24" si="9">E16*F16</f>
         <v>0</v>
       </c>
       <c r="H16" s="5"/>
@@ -1107,16 +1163,16 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5">
-        <f t="shared" ref="L16:L24" si="12">(D16+G16+H16+I16)-J16</f>
+        <f t="shared" ref="L16:L24" si="10">(D16+G16+H16+I16)-J16</f>
         <v>0</v>
       </c>
       <c r="M16" s="5">
         <f t="shared" si="4"/>
-        <v>115566.93199999997</v>
+        <v>163596.86179999993</v>
       </c>
       <c r="N16" s="5">
-        <f t="shared" ref="N16:N24" si="13">L16+M16</f>
-        <v>115566.93199999997</v>
+        <f t="shared" ref="N16:N24" si="11">L16+M16</f>
+        <v>163596.86179999993</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.35">
@@ -1126,13 +1182,13 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H17" s="5"/>
@@ -1140,12 +1196,12 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -1156,13 +1212,13 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H18" s="5"/>
@@ -1170,12 +1226,12 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -1186,13 +1242,13 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H19" s="5"/>
@@ -1200,12 +1256,12 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -1216,13 +1272,13 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H20" s="5"/>
@@ -1230,12 +1286,12 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -1246,13 +1302,13 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H21" s="5"/>
@@ -1260,12 +1316,12 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -1276,13 +1332,13 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H22" s="5"/>
@@ -1290,12 +1346,12 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -1306,13 +1362,13 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H23" s="5"/>
@@ -1320,12 +1376,12 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -1336,13 +1392,13 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H24" s="5"/>
@@ -1350,12 +1406,12 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -1365,18 +1421,18 @@
       </c>
       <c r="B25" s="5">
         <f>SUM(B2:B24)</f>
-        <v>2818.84</v>
+        <v>4244.62</v>
       </c>
       <c r="C25" s="5">
         <v>73.400000000000006</v>
       </c>
       <c r="D25" s="5">
         <f>(B25*C25)</f>
-        <v>206902.85600000003</v>
+        <v>311555.10800000001</v>
       </c>
       <c r="E25" s="5">
         <f>SUM(E2:E24)</f>
-        <v>15561.39</v>
+        <v>22356.22</v>
       </c>
       <c r="F25" s="5">
         <f>F2</f>
@@ -1384,35 +1440,35 @@
       </c>
       <c r="G25" s="5">
         <f>E25*F25</f>
-        <v>985969.67039999994</v>
+        <v>1416490.0992000001</v>
       </c>
       <c r="H25" s="5">
-        <f>SUM(H2:H24)</f>
-        <v>0</v>
+        <f t="shared" ref="H25:N25" si="12">SUM(H2:H24)</f>
+        <v>13531.4288</v>
       </c>
       <c r="I25" s="5">
-        <f>SUM(I2:I24)</f>
-        <v>341836</v>
+        <f t="shared" si="12"/>
+        <v>1100472</v>
       </c>
       <c r="J25" s="5">
-        <f>SUM(J2:J24)</f>
-        <v>1459068</v>
+        <f t="shared" si="12"/>
+        <v>2704924</v>
       </c>
       <c r="K25" s="5">
-        <f>SUM(K2:K24)</f>
-        <v>1780</v>
+        <f t="shared" si="12"/>
+        <v>2990</v>
       </c>
       <c r="L25" s="5">
-        <f>SUM(L2:L24)</f>
-        <v>76598.931999999972</v>
+        <f t="shared" si="12"/>
+        <v>124628.86179999993</v>
       </c>
       <c r="M25" s="5">
-        <f>SUM(M2:M24)</f>
-        <v>1555628.2828000002</v>
+        <f t="shared" si="12"/>
+        <v>1638354.8438999993</v>
       </c>
       <c r="N25" s="5">
-        <f>SUM(N2:N24)</f>
-        <v>1632227.2148000002</v>
+        <f t="shared" si="12"/>
+        <v>1762983.7056999991</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="21" x14ac:dyDescent="0.35">
@@ -1430,7 +1486,10 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
+      <c r="K26" s="5">
+        <f>30*500+10000+7000+30*300+10000</f>
+        <v>51000</v>
+      </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5" t="s">
@@ -1443,31 +1502,31 @@
       </c>
       <c r="B27" s="5">
         <f>B25*B26</f>
-        <v>7328.9840000000004</v>
+        <v>11036.012000000001</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5">
         <f>E25*E26</f>
-        <v>24898.224000000002</v>
+        <v>35769.952000000005</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5">
         <f>H25</f>
-        <v>0</v>
+        <v>13531.4288</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5">
         <f>K25</f>
-        <v>1780</v>
+        <v>2990</v>
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5">
         <f>(B27+E27+H27)-K27</f>
-        <v>30447.208000000002</v>
+        <v>57347.392800000009</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">

--- a/Petrol_Pump_Thangeda.xlsx
+++ b/Petrol_Pump_Thangeda.xlsx
@@ -421,7 +421,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,10 +1486,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="5">
-        <f>30*500+10000+7000+30*300+10000</f>
-        <v>51000</v>
-      </c>
+      <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5" t="s">
